--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
     <sheet name="학생정보 (2)" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="학생성적정보" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="425">
   <si>
     <t>국어국문</t>
   </si>
@@ -1305,6 +1306,58 @@
   <si>
     <t>전북 부안군 변산면 격포리 290-1</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>독고예준</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학번</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>음악</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미술</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D002</t>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>D004</t>
+  </si>
+  <si>
+    <t>학과코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D005</t>
   </si>
 </sst>
 </file>
@@ -1656,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1672,7 +1725,7 @@
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>408</v>
       </c>
@@ -1691,8 +1744,11 @@
       <c r="F1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>403</v>
       </c>
@@ -1707,13 +1763,17 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="str">
+        <f>VLOOKUP(F2,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>399</v>
       </c>
@@ -1728,13 +1788,17 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="str">
+        <f>VLOOKUP(F3,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>395</v>
       </c>
@@ -1749,13 +1813,17 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="str">
+        <f>VLOOKUP(F4,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>391</v>
       </c>
@@ -1775,8 +1843,12 @@
       <c r="F5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="str">
+        <f>VLOOKUP(F5,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>387</v>
       </c>
@@ -1796,8 +1868,12 @@
       <c r="F6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="str">
+        <f>VLOOKUP(F6,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>383</v>
       </c>
@@ -1817,8 +1893,12 @@
       <c r="F7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="str">
+        <f>VLOOKUP(F7,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>379</v>
       </c>
@@ -1833,13 +1913,17 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="str">
+        <f>VLOOKUP(F8,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>375</v>
       </c>
@@ -1859,8 +1943,12 @@
       <c r="F9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="str">
+        <f>VLOOKUP(F9,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>371</v>
       </c>
@@ -1875,13 +1963,17 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="str">
+        <f>VLOOKUP(F10,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>367</v>
       </c>
@@ -1896,13 +1988,17 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="str">
+        <f>VLOOKUP(F11,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>363</v>
       </c>
@@ -1917,13 +2013,17 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="str">
+        <f>VLOOKUP(F12,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>359</v>
       </c>
@@ -1938,13 +2038,17 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="str">
+        <f>VLOOKUP(F13,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>355</v>
       </c>
@@ -1959,13 +2063,17 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="str">
+        <f>VLOOKUP(F14,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>351</v>
       </c>
@@ -1980,13 +2088,17 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="str">
+        <f>VLOOKUP(F15,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>347</v>
       </c>
@@ -2001,13 +2113,17 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="str">
+        <f>VLOOKUP(F16,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>343</v>
       </c>
@@ -2022,13 +2138,17 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="str">
+        <f>VLOOKUP(F17,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>339</v>
       </c>
@@ -2043,18 +2163,22 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="str">
+        <f>VLOOKUP(F18,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>335</v>
       </c>
       <c r="B19" t="s">
-        <v>334</v>
+        <v>411</v>
       </c>
       <c r="C19" t="s">
         <v>333</v>
@@ -2064,13 +2188,17 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="str">
+        <f>VLOOKUP(F19,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>331</v>
       </c>
@@ -2085,13 +2213,17 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="str">
+        <f>VLOOKUP(F20,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>327</v>
       </c>
@@ -2111,8 +2243,12 @@
       <c r="F21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="str">
+        <f>VLOOKUP(F21,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>323</v>
       </c>
@@ -2127,13 +2263,17 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="str">
+        <f>VLOOKUP(F22,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>319</v>
       </c>
@@ -2148,13 +2288,17 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="str">
+        <f>VLOOKUP(F23,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>315</v>
       </c>
@@ -2174,8 +2318,12 @@
       <c r="F24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="str">
+        <f>VLOOKUP(F24,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>311</v>
       </c>
@@ -2195,8 +2343,12 @@
       <c r="F25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="str">
+        <f>VLOOKUP(F25,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>307</v>
       </c>
@@ -2216,8 +2368,12 @@
       <c r="F26" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="str">
+        <f>VLOOKUP(F26,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>303</v>
       </c>
@@ -2232,13 +2388,17 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="str">
+        <f>VLOOKUP(F27,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>299</v>
       </c>
@@ -2253,13 +2413,17 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="str">
+        <f>VLOOKUP(F28,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>295</v>
       </c>
@@ -2279,8 +2443,12 @@
       <c r="F29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="str">
+        <f>VLOOKUP(F29,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>291</v>
       </c>
@@ -2295,13 +2463,17 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="str">
+        <f>VLOOKUP(F30,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>287</v>
       </c>
@@ -2316,13 +2488,17 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="str">
+        <f>VLOOKUP(F31,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>283</v>
       </c>
@@ -2337,13 +2513,17 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="str">
+        <f>VLOOKUP(F32,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>280</v>
       </c>
@@ -2358,13 +2538,17 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="str">
+        <f>VLOOKUP(F33,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>276</v>
       </c>
@@ -2379,13 +2563,17 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="str">
+        <f>VLOOKUP(F34,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>272</v>
       </c>
@@ -2400,13 +2588,17 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="str">
+        <f>VLOOKUP(F35,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>268</v>
       </c>
@@ -2421,13 +2613,17 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="str">
+        <f>VLOOKUP(F36,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>264</v>
       </c>
@@ -2447,8 +2643,12 @@
       <c r="F37" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="str">
+        <f>VLOOKUP(F37,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>260</v>
       </c>
@@ -2468,8 +2668,12 @@
       <c r="F38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="str">
+        <f>VLOOKUP(F38,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>256</v>
       </c>
@@ -2489,8 +2693,12 @@
       <c r="F39" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="str">
+        <f>VLOOKUP(F39,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>252</v>
       </c>
@@ -2505,13 +2713,17 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="str">
+        <f>VLOOKUP(F40,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>248</v>
       </c>
@@ -2531,8 +2743,12 @@
       <c r="F41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="str">
+        <f>VLOOKUP(F41,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>244</v>
       </c>
@@ -2547,13 +2763,17 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="str">
+        <f>VLOOKUP(F42,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>240</v>
       </c>
@@ -2568,13 +2788,17 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="str">
+        <f>VLOOKUP(F43,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>236</v>
       </c>
@@ -2589,13 +2813,17 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="str">
+        <f>VLOOKUP(F44,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>232</v>
       </c>
@@ -2610,13 +2838,17 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="str">
+        <f>VLOOKUP(F45,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>228</v>
       </c>
@@ -2631,13 +2863,17 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" t="str">
+        <f>VLOOKUP(F46,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>224</v>
       </c>
@@ -2652,13 +2888,17 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="str">
+        <f>VLOOKUP(F47,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>220</v>
       </c>
@@ -2673,13 +2913,17 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="str">
+        <f>VLOOKUP(F48,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>216</v>
       </c>
@@ -2694,13 +2938,17 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" t="str">
+        <f>VLOOKUP(F49,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>212</v>
       </c>
@@ -2715,13 +2963,17 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" t="str">
+        <f>VLOOKUP(F50,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>208</v>
       </c>
@@ -2736,13 +2988,17 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" t="str">
+        <f>VLOOKUP(F51,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>204</v>
       </c>
@@ -2762,8 +3018,12 @@
       <c r="F52" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" t="str">
+        <f>VLOOKUP(F52,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>200</v>
       </c>
@@ -2778,13 +3038,17 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" t="str">
+        <f>VLOOKUP(F53,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>196</v>
       </c>
@@ -2799,13 +3063,17 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="str">
+        <f>VLOOKUP(F54,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>192</v>
       </c>
@@ -2820,13 +3088,17 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" t="str">
+        <f>VLOOKUP(F55,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>188</v>
       </c>
@@ -2841,13 +3113,17 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" t="str">
+        <f>VLOOKUP(F56,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>184</v>
       </c>
@@ -2862,13 +3138,17 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="str">
+        <f>VLOOKUP(F57,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>180</v>
       </c>
@@ -2883,13 +3163,17 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" t="str">
+        <f>VLOOKUP(F58,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>176</v>
       </c>
@@ -2904,13 +3188,17 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" t="str">
+        <f>VLOOKUP(F59,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -2930,8 +3218,12 @@
       <c r="F60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" t="str">
+        <f>VLOOKUP(F60,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>168</v>
       </c>
@@ -2946,13 +3238,17 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" t="str">
+        <f>VLOOKUP(F61,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>164</v>
       </c>
@@ -2967,13 +3263,17 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" t="str">
+        <f>VLOOKUP(F62,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>160</v>
       </c>
@@ -2988,13 +3288,17 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" t="str">
+        <f>VLOOKUP(F63,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>156</v>
       </c>
@@ -3009,13 +3313,17 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" t="str">
+        <f>VLOOKUP(F64,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>152</v>
       </c>
@@ -3035,8 +3343,12 @@
       <c r="F65" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" t="str">
+        <f>VLOOKUP(F65,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>148</v>
       </c>
@@ -3051,13 +3363,17 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" t="str">
+        <f>VLOOKUP(F66,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>144</v>
       </c>
@@ -3077,8 +3393,12 @@
       <c r="F67" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" t="str">
+        <f>VLOOKUP(F67,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>140</v>
       </c>
@@ -3093,13 +3413,17 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" t="str">
+        <f>VLOOKUP(F68,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -3114,13 +3438,17 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" t="str">
+        <f>VLOOKUP(F69,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>132</v>
       </c>
@@ -3140,8 +3468,12 @@
       <c r="F70" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" t="str">
+        <f>VLOOKUP(F70,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>128</v>
       </c>
@@ -3156,13 +3488,17 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" t="str">
+        <f>VLOOKUP(F71,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>124</v>
       </c>
@@ -3177,13 +3513,17 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" t="str">
+        <f>VLOOKUP(F72,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>120</v>
       </c>
@@ -3203,8 +3543,12 @@
       <c r="F73" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" t="str">
+        <f>VLOOKUP(F73,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>116</v>
       </c>
@@ -3219,13 +3563,17 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" t="str">
+        <f>VLOOKUP(F74,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>112</v>
       </c>
@@ -3245,8 +3593,12 @@
       <c r="F75" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" t="str">
+        <f>VLOOKUP(F75,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>108</v>
       </c>
@@ -3261,13 +3613,17 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" t="str">
+        <f>VLOOKUP(F76,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>104</v>
       </c>
@@ -3282,13 +3638,17 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" t="str">
+        <f>VLOOKUP(F77,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>100</v>
       </c>
@@ -3303,13 +3663,17 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" t="str">
+        <f>VLOOKUP(F78,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>96</v>
       </c>
@@ -3324,13 +3688,17 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" t="str">
+        <f>VLOOKUP(F79,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -3345,13 +3713,17 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" t="str">
+        <f>VLOOKUP(F80,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>88</v>
       </c>
@@ -3366,13 +3738,17 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" t="str">
+        <f>VLOOKUP(F81,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
@@ -3387,13 +3763,17 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" t="str">
+        <f>VLOOKUP(F82,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
@@ -3408,13 +3788,17 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" t="str">
+        <f>VLOOKUP(F83,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>76</v>
       </c>
@@ -3429,13 +3813,17 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" t="str">
+        <f>VLOOKUP(F84,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>72</v>
       </c>
@@ -3455,8 +3843,12 @@
       <c r="F85" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" t="str">
+        <f>VLOOKUP(F85,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>68</v>
       </c>
@@ -3471,13 +3863,17 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" t="str">
+        <f>VLOOKUP(F86,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>64</v>
       </c>
@@ -3497,8 +3893,12 @@
       <c r="F87" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" t="str">
+        <f>VLOOKUP(F87,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>60</v>
       </c>
@@ -3513,13 +3913,17 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" t="str">
+        <f>VLOOKUP(F88,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>56</v>
       </c>
@@ -3534,13 +3938,17 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" t="str">
+        <f>VLOOKUP(F89,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>52</v>
       </c>
@@ -3555,13 +3963,17 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" t="str">
+        <f>VLOOKUP(F90,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>47</v>
       </c>
@@ -3581,8 +3993,12 @@
       <c r="F91" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" t="str">
+        <f>VLOOKUP(F91,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>43</v>
       </c>
@@ -3597,13 +4013,17 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" t="str">
+        <f>VLOOKUP(F92,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>38</v>
       </c>
@@ -3618,13 +4038,17 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" t="str">
+        <f>VLOOKUP(F93,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>34</v>
       </c>
@@ -3639,13 +4063,17 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" t="str">
+        <f>VLOOKUP(F94,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>30</v>
       </c>
@@ -3665,8 +4093,12 @@
       <c r="F95" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" t="str">
+        <f>VLOOKUP(F95,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>26</v>
       </c>
@@ -3686,8 +4118,12 @@
       <c r="F96" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" t="str">
+        <f>VLOOKUP(F96,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>22</v>
       </c>
@@ -3702,13 +4138,17 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" t="str">
+        <f>VLOOKUP(F97,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>18</v>
       </c>
@@ -3728,8 +4168,12 @@
       <c r="F98" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" t="str">
+        <f>VLOOKUP(F98,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>14</v>
       </c>
@@ -3749,8 +4193,12 @@
       <c r="F99" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" t="str">
+        <f>VLOOKUP(F99,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -3765,13 +4213,17 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" t="str">
+        <f>VLOOKUP(F100,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>4</v>
       </c>
@@ -3786,10 +4238,14 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
+      </c>
+      <c r="G101" t="str">
+        <f>VLOOKUP(F101,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
       </c>
     </row>
   </sheetData>
@@ -3804,7 +4260,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3846,14 +4302,14 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-3607-3848</v>
+        <v>010-6692-8111</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>400</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -3868,14 +4324,14 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-0888-7379</v>
+        <v>010-2381-7771</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>396</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -3890,14 +4346,14 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2267-5191</v>
+        <v>010-8802-2976</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>392</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -3912,14 +4368,14 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9155-1607</v>
+        <v>010-6110-3032</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>388</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -3934,14 +4390,14 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6588-4765</v>
+        <v>010-8016-3489</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>384</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -3956,14 +4412,14 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7710-6227</v>
+        <v>010-1803-6919</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>380</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -3978,14 +4434,14 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0688-6099</v>
+        <v>010-2125-7193</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>376</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -4000,14 +4456,14 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6322-1639</v>
+        <v>010-7150-8546</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>372</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -4022,14 +4478,14 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5924-4222</v>
+        <v>010-6416-6377</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>368</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -4044,7 +4500,7 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0314-9940</v>
+        <v>010-6642-7690</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>364</v>
@@ -4066,14 +4522,14 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6460-7344</v>
+        <v>010-3859-9905</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>360</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -4088,14 +4544,14 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7640-6354</v>
+        <v>010-4876-8056</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>356</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -4110,14 +4566,14 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2251-0563</v>
+        <v>010-2154-1433</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>352</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -4132,14 +4588,14 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4634-9582</v>
+        <v>010-3759-1422</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>348</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -4154,14 +4610,14 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1719-0929</v>
+        <v>010-2068-2650</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>344</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -4176,14 +4632,14 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2024-9615</v>
+        <v>010-0211-8058</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>340</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -4198,14 +4654,14 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3737-8172</v>
+        <v>010-6320-2796</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>336</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -4220,14 +4676,14 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4434-4247</v>
+        <v>010-4319-2787</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>332</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -4242,14 +4698,14 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8571-1279</v>
+        <v>010-5650-9316</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>328</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -4264,7 +4720,7 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5175-3622</v>
+        <v>010-9484-9195</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>324</v>
@@ -4286,14 +4742,14 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6893-1922</v>
+        <v>010-2032-2859</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>320</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -4308,14 +4764,14 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2222-6110</v>
+        <v>010-5759-2262</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>316</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4330,14 +4786,14 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6790-0583</v>
+        <v>010-5359-8232</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>312</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -4352,14 +4808,14 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7598-4341</v>
+        <v>010-5096-4269</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>308</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -4374,14 +4830,14 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1557-4887</v>
+        <v>010-3454-9587</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>304</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -4396,14 +4852,14 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8343-2676</v>
+        <v>010-6547-4436</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>300</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -4418,14 +4874,14 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5835-7069</v>
+        <v>010-1556-5127</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>296</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -4440,14 +4896,14 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9460-8488</v>
+        <v>010-5330-8565</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>292</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -4462,14 +4918,14 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4645-3425</v>
+        <v>010-1753-3518</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>288</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -4484,7 +4940,7 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6936-4402</v>
+        <v>010-2534-2665</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>284</v>
@@ -4506,14 +4962,14 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1743-5511</v>
+        <v>010-1222-8948</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>410</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -4528,14 +4984,14 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3323-0312</v>
+        <v>010-8223-7678</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -4550,7 +5006,7 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1313-0181</v>
+        <v>010-4129-2919</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>273</v>
@@ -4572,14 +5028,14 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9579-0388</v>
+        <v>010-9877-6882</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -4594,14 +5050,14 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3623-0177</v>
+        <v>010-2960-4969</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>265</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -4616,7 +5072,7 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1990-7399</v>
+        <v>010-6003-9007</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>261</v>
@@ -4638,14 +5094,14 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4521-6340</v>
+        <v>010-3290-7349</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -4660,14 +5116,14 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2483-4166</v>
+        <v>010-7494-9200</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -4682,14 +5138,14 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3840-7141</v>
+        <v>010-2481-7636</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -4704,14 +5160,14 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8778-3144</v>
+        <v>010-9173-6558</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -4726,14 +5182,14 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3458-4056</v>
+        <v>010-3567-7034</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -4748,14 +5204,14 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2480-9339</v>
+        <v>010-1562-1827</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -4770,14 +5226,14 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6913-3433</v>
+        <v>010-1219-5149</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>233</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -4792,14 +5248,14 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3121-8518</v>
+        <v>010-0937-0541</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -4814,14 +5270,14 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1347-8810</v>
+        <v>010-8941-2838</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -4836,14 +5292,14 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5921-1124</v>
+        <v>010-1444-2269</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -4858,14 +5314,14 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5255-2134</v>
+        <v>010-1729-4149</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -4880,14 +5336,14 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2993-4032</v>
+        <v>010-2472-1178</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -4902,14 +5358,14 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3075-0188</v>
+        <v>010-6463-1041</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -4924,14 +5380,14 @@
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4657-1914</v>
+        <v>010-9899-9507</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -4946,14 +5402,14 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4703-4658</v>
+        <v>010-3097-5968</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -4968,14 +5424,14 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8836-2221</v>
+        <v>010-4884-9224</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>197</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -4990,14 +5446,14 @@
       </c>
       <c r="C54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7963-9843</v>
+        <v>010-5909-1020</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>193</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -5012,7 +5468,7 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7745-0725</v>
+        <v>010-8240-4538</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>189</v>
@@ -5034,7 +5490,7 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2046-1119</v>
+        <v>010-5406-6110</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>185</v>
@@ -5056,7 +5512,7 @@
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8517-6107</v>
+        <v>010-8111-9300</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>181</v>
@@ -5078,14 +5534,14 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8523-5559</v>
+        <v>010-3191-7811</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -5100,14 +5556,14 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1727-8226</v>
+        <v>010-2070-6284</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -5122,14 +5578,14 @@
       </c>
       <c r="C60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4651-5388</v>
+        <v>010-8877-0396</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -5144,14 +5600,14 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0673-0392</v>
+        <v>010-6684-6484</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>165</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -5166,14 +5622,14 @@
       </c>
       <c r="C62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2291-7889</v>
+        <v>010-5401-1789</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -5188,14 +5644,14 @@
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7203-2013</v>
+        <v>010-5147-3073</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -5210,7 +5666,7 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0478-2040</v>
+        <v>010-6896-0885</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>153</v>
@@ -5232,14 +5688,14 @@
       </c>
       <c r="C65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1241-0172</v>
+        <v>010-0384-6357</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -5254,14 +5710,14 @@
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7491-7295</v>
+        <v>010-3986-2829</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -5276,14 +5732,14 @@
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="3">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-5673-5842</v>
+        <v>010-4210-1222</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -5298,14 +5754,14 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9301-1263</v>
+        <v>010-3662-8499</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -5320,7 +5776,7 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2983-3370</v>
+        <v>010-4370-5212</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>133</v>
@@ -5342,14 +5798,14 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2430-6097</v>
+        <v>010-2740-7442</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -5364,7 +5820,7 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5150-2785</v>
+        <v>010-1097-4975</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>125</v>
@@ -5386,14 +5842,14 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8960-1569</v>
+        <v>010-6581-6853</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -5408,7 +5864,7 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9753-5199</v>
+        <v>010-4415-1409</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>117</v>
@@ -5430,7 +5886,7 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5362-4838</v>
+        <v>010-8028-6709</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>113</v>
@@ -5452,14 +5908,14 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6467-9952</v>
+        <v>010-4030-4453</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -5474,7 +5930,7 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5085-2562</v>
+        <v>010-9467-1527</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>105</v>
@@ -5496,7 +5952,7 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0239-7849</v>
+        <v>010-7314-2001</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>101</v>
@@ -5518,14 +5974,14 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4639-6817</v>
+        <v>010-0249-7491</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -5540,14 +5996,14 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4730-4351</v>
+        <v>010-5453-3700</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
@@ -5562,14 +6018,14 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2030-3539</v>
+        <v>010-3835-6928</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -5584,14 +6040,14 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0806-9338</v>
+        <v>010-1404-5765</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -5606,14 +6062,14 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2084-0756</v>
+        <v>010-0989-4111</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -5628,14 +6084,14 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2872-2762</v>
+        <v>010-0776-6800</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -5650,14 +6106,14 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1231-3062</v>
+        <v>010-7792-2741</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -5672,7 +6128,7 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6753-3347</v>
+        <v>010-3666-3704</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>69</v>
@@ -5694,7 +6150,7 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3401-1805</v>
+        <v>010-6631-3372</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>65</v>
@@ -5716,14 +6172,14 @@
       </c>
       <c r="C87" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3817-8404</v>
+        <v>010-6465-5483</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -5738,14 +6194,14 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7679-3132</v>
+        <v>010-2056-4736</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -5760,14 +6216,14 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9196-9949</v>
+        <v>010-5383-7804</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
@@ -5782,7 +6238,7 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4014-0772</v>
+        <v>010-8603-9619</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>49</v>
@@ -5804,14 +6260,14 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5913-6862</v>
+        <v>010-6356-0772</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -5826,14 +6282,14 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3510-2668</v>
+        <v>010-4889-4907</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -5848,14 +6304,14 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7886-2184</v>
+        <v>010-1485-1479</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -5870,14 +6326,14 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3652-9238</v>
+        <v>010-9751-2014</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -5892,14 +6348,14 @@
       </c>
       <c r="C95" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2538-8875</v>
+        <v>010-8322-0833</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -5914,14 +6370,14 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6088-8040</v>
+        <v>010-1534-2186</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -5936,14 +6392,14 @@
       </c>
       <c r="C97" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5758-3581</v>
+        <v>010-7688-8217</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -5958,14 +6414,14 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2432-0344</v>
+        <v>010-0293-1688</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -5980,14 +6436,14 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8721-6023</v>
+        <v>010-3765-6348</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -6002,14 +6458,14 @@
       </c>
       <c r="C100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5124-6378</v>
+        <v>010-1941-1535</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -6024,14 +6480,14 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3456-3316</v>
+        <v>010-0204-0056</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -6046,371 +6502,2603 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:B44"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="6" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(50,100)</f>
+        <v>97</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:F21" ca="1" si="0">RANDBETWEEN(50,100)</f>
+        <v>65</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:F18" ca="1" si="1">RANDBETWEEN(50,100)</f>
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:F34" ca="1" si="2">RANDBETWEEN(50,100)</f>
+        <v>91</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="2"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35:F50" ca="1" si="3">RANDBETWEEN(50,100)</f>
+        <v>52</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="3"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51:F66" ca="1" si="4">RANDBETWEEN(50,100)</f>
+        <v>72</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="4"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="4"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="4"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:F82" ca="1" si="5">RANDBETWEEN(50,100)</f>
+        <v>82</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ca="1" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ca="1" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ca="1" si="5"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ca="1" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="5"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="5"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="5"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="5"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="5"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ca="1" si="5"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ca="1" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ca="1" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ca="1" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ca="1" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ca="1" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="5"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ca="1" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ca="1" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="5"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ca="1" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ca="1" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="5"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ref="B83:F98" ca="1" si="6">RANDBETWEEN(50,100)</f>
+        <v>51</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="6"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ca="1" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="6"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ca="1" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="6"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ca="1" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ca="1" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ca="1" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="6"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ca="1" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="6"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ca="1" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="6"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ca="1" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ca="1" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="6"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ca="1" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ca="1" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ca="1" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ca="1" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="6"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ca="1" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ca="1" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ca="1" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="6"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ca="1" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="6"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ca="1" si="6"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="6"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ca="1" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="6"/>
+        <v>91</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="6"/>
+        <v>97</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ref="B99:F101" ca="1" si="7">RANDBETWEEN(50,100)</f>
+        <v>97</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="7"/>
+        <v>98</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="7"/>
+        <v>81</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="7"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ca="1" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="7"/>
+        <v>57</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="7"/>
+        <v>53</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ca="1" si="7"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ca="1" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ca="1" si="7"/>
+        <v>97</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ca="1" si="7"/>
+        <v>85</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="7"/>
+        <v>88</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ca="1" si="7"/>
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>402</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>390</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>370</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>366</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>362</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>354</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>334</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>330</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>326</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>306</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>302</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>279</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>243</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>231</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>219</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>191</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>187</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>175</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>163</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:A5">
+    <sortCondition ref="A1:A5"/>
+  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보 (2)" sheetId="1" r:id="rId1"/>
@@ -1822,7 +1822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -3320,7 +3320,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
@@ -3383,7 +3383,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -3803,7 +3803,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -3967,7 +3967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -4100,7 +4100,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -4310,7 +4310,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -4415,7 +4415,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4478,7 +4478,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -4520,7 +4520,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -4898,7 +4898,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -4940,7 +4940,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -5003,7 +5003,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -5045,7 +5045,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -5192,7 +5192,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -5339,7 +5339,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -5402,7 +5402,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
@@ -5528,7 +5528,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -5549,7 +5549,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -5612,7 +5612,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
@@ -5780,7 +5780,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -5843,7 +5843,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
@@ -5864,7 +5864,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -5948,7 +5948,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -6032,7 +6032,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -6053,7 +6053,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -6112,7 +6112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -6292,7 +6292,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -6342,7 +6342,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -6367,7 +6367,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -6417,7 +6417,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -6442,7 +6442,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -6467,7 +6467,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -6492,7 +6492,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -6517,7 +6517,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -6542,7 +6542,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -6592,7 +6592,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -6642,7 +6642,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -6667,7 +6667,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -6692,7 +6692,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -6742,7 +6742,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -6767,7 +6767,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -6817,7 +6817,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -6842,7 +6842,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -6892,7 +6892,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -6992,7 +6992,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -7042,7 +7042,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -7067,7 +7067,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -7092,7 +7092,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -7117,7 +7117,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -7142,7 +7142,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -7167,7 +7167,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -7217,7 +7217,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -7242,7 +7242,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -7267,7 +7267,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -7317,7 +7317,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -7342,7 +7342,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -7367,7 +7367,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -7392,7 +7392,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -7517,7 +7517,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -7592,7 +7592,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -7667,7 +7667,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -7717,7 +7717,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -7742,7 +7742,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -7767,7 +7767,7 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -7792,7 +7792,7 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -7867,7 +7867,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -7892,7 +7892,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -7942,7 +7942,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
@@ -7992,7 +7992,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -8067,7 +8067,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -8142,7 +8142,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -8167,7 +8167,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -8242,7 +8242,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
@@ -8267,7 +8267,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -8292,7 +8292,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -8392,7 +8392,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -8417,7 +8417,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -8442,7 +8442,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -8492,7 +8492,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -8517,7 +8517,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -8542,7 +8542,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -8592,7 +8592,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -8642,7 +8642,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -8663,7 +8663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -8719,7 +8719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -8764,7 +8764,7 @@
       </c>
       <c r="E2" t="str">
         <f ca="1">"062"&amp; TEXT(RANDBETWEEN(10000,99999),"-000-0000")</f>
-        <v>062-007-6247</v>
+        <v>062-001-1144</v>
       </c>
       <c r="F2" t="s">
         <v>443</v>
@@ -8785,7 +8785,7 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E6" ca="1" si="0">"062"&amp; TEXT(RANDBETWEEN(10000,99999),"-000-0000")</f>
-        <v>062-003-9090</v>
+        <v>062-006-3651</v>
       </c>
       <c r="F3" t="s">
         <v>444</v>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-005-2883</v>
+        <v>062-008-7450</v>
       </c>
       <c r="F4" t="s">
         <v>445</v>
@@ -8827,7 +8827,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-001-0680</v>
+        <v>062-006-8460</v>
       </c>
       <c r="F5" t="s">
         <v>446</v>
@@ -8848,7 +8848,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-002-1567</v>
+        <v>062-009-0213</v>
       </c>
       <c r="F6" t="s">
         <v>447</v>
